--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2175554.945608414</v>
+        <v>-2178274.346752661</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>295.7880427010232</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>377.1191226731936</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,13 +817,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>90.92637375269284</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>173.6356856062494</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>143.6950032539284</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>189.4755516291271</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>88.83602509256637</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>89.94974587344778</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>229.7044276867457</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>193.3921981866901</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>155.6512730991042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>68.4162357939951</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>103.1686991936184</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>10.7499328358382</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>58.24570521548596</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>222.1774156618439</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>86.60069024005126</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,19 +2056,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>271.1598222873251</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>27.31547498186472</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,16 +2296,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>191.9440058362632</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2372,13 +2372,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>98.72106119200248</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2725,7 +2725,7 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002295</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541845</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784708</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,19 +3661,19 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="44">
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>867.511359413126</v>
+        <v>350.0225872761075</v>
       </c>
       <c r="C2" t="n">
-        <v>498.5488424727143</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D2" t="n">
-        <v>498.5488424727143</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E2" t="n">
-        <v>498.5488424727143</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F2" t="n">
-        <v>498.5488424727143</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X2" t="n">
-        <v>1644.250531453059</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="Y2" t="n">
-        <v>1254.111199477248</v>
+        <v>736.6224273402293</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310615</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625333</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341572</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1614.486495938517</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>291.0047021228132</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C4" t="n">
-        <v>291.0047021228132</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D4" t="n">
-        <v>291.0047021228132</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>143.0916085404201</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>143.0916085404201</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>143.0916085404201</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4486,7 +4486,7 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312202</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4495,7 +4495,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,7 +4507,7 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
         <v>1533.86271359008</v>
@@ -4519,19 +4519,19 @@
         <v>1533.86271359008</v>
       </c>
       <c r="U4" t="n">
-        <v>1244.744376093918</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V4" t="n">
-        <v>990.0598878880309</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="W4" t="n">
-        <v>700.6427178510703</v>
+        <v>955.3272060569568</v>
       </c>
       <c r="X4" t="n">
-        <v>472.653166953053</v>
+        <v>727.3376551589395</v>
       </c>
       <c r="Y4" t="n">
-        <v>472.653166953053</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1042.715325395395</v>
+        <v>1653.287154902436</v>
       </c>
       <c r="C5" t="n">
-        <v>673.7528084549833</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="D5" t="n">
-        <v>673.7528084549833</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E5" t="n">
-        <v>673.7528084549833</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7669036653758</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4565,22 +4565,22 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872906</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
         <v>2360.886721764997</v>
@@ -4595,22 +4595,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2370.949882310128</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.01262627016</v>
+        <v>2370.949882310128</v>
       </c>
       <c r="V5" t="n">
-        <v>1768.949738926589</v>
+        <v>2039.886994966557</v>
       </c>
       <c r="W5" t="n">
-        <v>1416.181083656475</v>
+        <v>2039.886994966557</v>
       </c>
       <c r="X5" t="n">
-        <v>1042.715325395395</v>
+        <v>2039.886994966557</v>
       </c>
       <c r="Y5" t="n">
-        <v>1042.715325395395</v>
+        <v>2039.886994966557</v>
       </c>
     </row>
     <row r="6">
@@ -4638,31 +4638,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.201367341571</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1614.486495938516</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601822</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434119</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>309.91632817527</v>
+        <v>455.1316662333386</v>
       </c>
       <c r="C7" t="n">
-        <v>140.9801452473631</v>
+        <v>455.1316662333386</v>
       </c>
       <c r="D7" t="n">
-        <v>140.9801452473631</v>
+        <v>305.0150268210029</v>
       </c>
       <c r="E7" t="n">
-        <v>140.9801452473631</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F7" t="n">
-        <v>140.9801452473631</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.115628253778</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V7" t="n">
-        <v>1048.115628253778</v>
+        <v>1056.199744578928</v>
       </c>
       <c r="W7" t="n">
-        <v>758.6984582168175</v>
+        <v>766.7825745419675</v>
       </c>
       <c r="X7" t="n">
-        <v>530.7089073188001</v>
+        <v>675.9242453768687</v>
       </c>
       <c r="Y7" t="n">
-        <v>309.91632817527</v>
+        <v>455.1316662333386</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1228.647807131574</v>
+        <v>1116.060225937134</v>
       </c>
       <c r="C8" t="n">
-        <v>859.685290191162</v>
+        <v>747.0977089967223</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>747.0977089967223</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>361.3094563984781</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190806</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V8" t="n">
-        <v>2184.059060190806</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W8" t="n">
-        <v>1988.713405456775</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X8" t="n">
-        <v>1615.247647195695</v>
+        <v>1502.660066001256</v>
       </c>
       <c r="Y8" t="n">
-        <v>1615.247647195695</v>
+        <v>1502.660066001256</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>551.6025748766954</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>846.306131908167</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687206</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.770244284151</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>587.3200113734622</v>
+        <v>609.1284824998266</v>
       </c>
       <c r="C10" t="n">
-        <v>418.3838284455553</v>
+        <v>609.1284824998266</v>
       </c>
       <c r="D10" t="n">
-        <v>268.2671890332196</v>
+        <v>609.1284824998266</v>
       </c>
       <c r="E10" t="n">
-        <v>120.3540954508264</v>
+        <v>461.2153889174335</v>
       </c>
       <c r="F10" t="n">
-        <v>120.3540954508264</v>
+        <v>314.3254414195231</v>
       </c>
       <c r="G10" t="n">
-        <v>120.3540954508264</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>120.3540954508264</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1533.86271359008</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V10" t="n">
-        <v>1279.178225384193</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="W10" t="n">
-        <v>989.7610553472321</v>
+        <v>1057.910612541374</v>
       </c>
       <c r="X10" t="n">
-        <v>989.7610553472321</v>
+        <v>829.9210616433568</v>
       </c>
       <c r="Y10" t="n">
-        <v>768.9684762037019</v>
+        <v>609.1284824998266</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5033,7 +5033,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5057,34 +5057,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400703</v>
+        <v>962.6357307816141</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121634</v>
+        <v>793.6995478537073</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121634</v>
+        <v>643.5829084413715</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>495.6698148589784</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038334</v>
+        <v>435.7419440038298</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797699</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138402</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.50206557031</v>
+        <v>1144.284195611854</v>
       </c>
     </row>
     <row r="14">
@@ -5270,19 +5270,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5294,34 +5294,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>251.5626541092274</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249859</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C16" t="n">
-        <v>526.5658826424041</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D16" t="n">
-        <v>376.4492432300683</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>376.4492432300683</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578603</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578603</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5473,13 +5473,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1209.279733667159</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1209.279733667159</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>988.4871545236284</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,16 +5525,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2383.002557118213</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>2878.328163333972</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3475.706650960524</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>3997.30868757553</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O18" t="n">
-        <v>3997.30868757553</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>4420.931837070598</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1703.562270119271</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1448.877781913384</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1159.460611876424</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X19" t="n">
-        <v>931.4710609784063</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y19" t="n">
-        <v>931.4710609784063</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5832,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.6905094135296</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C22" t="n">
-        <v>700.7543264856228</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2419.37169470969</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2419.37169470969</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2199.770229732631</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1910.695003076829</v>
       </c>
       <c r="V22" t="n">
-        <v>1755.431557602304</v>
+        <v>1656.010514870942</v>
       </c>
       <c r="W22" t="n">
-        <v>1466.014387565343</v>
+        <v>1366.593344833982</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.131553387299</v>
+        <v>1138.603793935964</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.338974243769</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="23">
@@ -5984,7 +5984,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,7 +6023,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852889</v>
@@ -6069,25 +6069,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>506.2737913123336</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6190,7 +6190,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>816.5764010855557</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
@@ -6224,10 +6224,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1025.119922845744</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>1652.717886400351</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6418,7 +6418,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6452,19 +6452,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6622,19 +6622,19 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P31" t="n">
         <v>2496.057455973196</v>
@@ -6646,7 +6646,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,52 +6686,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1702.07903472198</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6883,7 +6883,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>214.9229991561127</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>214.9229991561127</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>710.2486053718716</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D37" t="n">
         <v>656.9646031150023</v>
@@ -7084,52 +7084,52 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384021</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468473</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7330,43 +7330,43 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380732</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311327</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1552.432392194325</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2104.342122433612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D43" t="n">
         <v>656.9646031150023</v>
@@ -7555,25 +7555,25 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7646,10 +7646,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>175.8744207939072</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,31 +7804,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7837,19 +7837,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,22 +8064,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>255.8421700460945</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>168.743458178064</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,13 +8301,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="O6" t="n">
-        <v>45.76488231024621</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,13 +8532,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>255.842170046095</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>54.95314511566545</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22547,10 +22547,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>69.48484906998431</v>
       </c>
       <c r="D2" t="n">
-        <v>322.0406428058718</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22559,13 +22559,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>34.42858009976038</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>248.1447097738531</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22705,25 +22705,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>56.325135402436</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,10 +22753,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>44.94896774584538</v>
       </c>
     </row>
     <row r="5">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>43.26526345295079</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>134.6711151870931</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>87.17534280744528</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>64.34558267474708</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>80.64613085857657</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,10 +23899,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,19 +23944,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>15.02465210191906</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>39.05977172825696</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>33.76564955277399</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48691.36674215494</v>
+        <v>48691.36674215495</v>
       </c>
       <c r="C2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982129</v>
       </c>
       <c r="E2" t="n">
+        <v>60535.99497675044</v>
+      </c>
+      <c r="F2" t="n">
         <v>60535.99497675045</v>
-      </c>
-      <c r="F2" t="n">
-        <v>60535.99497675047</v>
       </c>
       <c r="G2" t="n">
         <v>60535.99497675046</v>
       </c>
       <c r="H2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675043</v>
       </c>
       <c r="I2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675041</v>
       </c>
       <c r="J2" t="n">
+        <v>61578.13273982125</v>
+      </c>
+      <c r="K2" t="n">
         <v>61578.1327398212</v>
-      </c>
-      <c r="K2" t="n">
-        <v>61578.13273982124</v>
       </c>
       <c r="L2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="M2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982123</v>
       </c>
       <c r="N2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982129</v>
       </c>
       <c r="O2" t="n">
         <v>61578.13273982126</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982126</v>
       </c>
     </row>
     <row r="3">
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363179</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35042.64031981785</v>
+        <v>35042.64031981789</v>
       </c>
       <c r="C4" t="n">
         <v>133113.8635467443</v>
@@ -26427,31 +26427,31 @@
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719658</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.36846171969</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719688</v>
+        <v>7507.3684617197</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719678</v>
+        <v>7507.36846171969</v>
       </c>
       <c r="J4" t="n">
         <v>15498.22772481313</v>
       </c>
       <c r="K4" t="n">
-        <v>15498.22772481313</v>
+        <v>15498.22772481314</v>
       </c>
       <c r="L4" t="n">
+        <v>15498.22772481319</v>
+      </c>
+      <c r="M4" t="n">
+        <v>15498.22772481314</v>
+      </c>
+      <c r="N4" t="n">
         <v>15498.22772481311</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15498.22772481304</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15498.22772481313</v>
       </c>
       <c r="O4" t="n">
         <v>15498.22772481315</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1194040.829593427</v>
+        <v>-1194470.388460016</v>
       </c>
       <c r="C6" t="n">
         <v>-164473.5032467678</v>
@@ -26528,40 +26528,40 @@
         <v>-164473.5032467678</v>
       </c>
       <c r="E6" t="n">
-        <v>-555579.344933422</v>
+        <v>-555614.0828588578</v>
       </c>
       <c r="F6" t="n">
-        <v>-48093.9033088763</v>
+        <v>-48128.641234312</v>
       </c>
       <c r="G6" t="n">
-        <v>-48093.90330887632</v>
+        <v>-48128.64123431204</v>
       </c>
       <c r="H6" t="n">
-        <v>-48093.90330887635</v>
+        <v>-48128.64123431208</v>
       </c>
       <c r="I6" t="n">
-        <v>-48093.90330887635</v>
+        <v>-48128.64123431208</v>
       </c>
       <c r="J6" t="n">
         <v>-244117.1066425216</v>
       </c>
       <c r="K6" t="n">
-        <v>-57084.21083890729</v>
+        <v>-57084.21083890733</v>
       </c>
       <c r="L6" t="n">
-        <v>-57084.21083890727</v>
+        <v>-57084.21083890733</v>
       </c>
       <c r="M6" t="n">
         <v>-189691.504567834</v>
       </c>
       <c r="N6" t="n">
-        <v>-57084.21083890713</v>
+        <v>-57084.21083890724</v>
       </c>
       <c r="O6" t="n">
         <v>-76511.92883253907</v>
       </c>
       <c r="P6" t="n">
-        <v>-57084.2108389073</v>
+        <v>-57084.21083890727</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203972</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
+        <v>934.0648921175392</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175391</v>
-      </c>
-      <c r="D3" t="n">
-        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26817,13 +26817,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="N4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>32.64239881481114</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>52.87384278855228</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,16 +27585,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>267.8526995190256</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27667,19 +27667,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>17.18263335110666</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>77.47057495223781</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>135.7599095155894</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>177.1716180549657</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>155.8487705307229</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>10.65532694569995</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>36.38035940990548</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28065,16 +28065,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,10 +28087,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29092,13 +29092,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="32">
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31045,28 +31045,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31081,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31130,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31142,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>146.0225991093093</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>658.2124561388949</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,10 +32552,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32573,7 +32573,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,10 +32789,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>401.521336481369</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32944,7 +32944,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -32953,7 +32953,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N26" t="n">
         <v>981.2715114159425</v>
@@ -33020,31 +33020,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O27" t="n">
-        <v>351.5042614518788</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>265.5442652399247</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>301.6445156724557</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>247.3820194983572</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460039</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669205</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>265.5442652399236</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>314.5984986256103</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>220.7280629601522</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,13 +34460,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
         <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>591.2668520422176</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>418.4229873015963</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34863,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>584.5244463807089</v>
       </c>
       <c r="O6" t="n">
-        <v>381.1895643063692</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>442.4296662895798</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35267,10 +35267,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>304.6326742391977</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409634</v>
+        <v>264.3325884096304</v>
       </c>
       <c r="L13" t="n">
         <v>394.3420143191314</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>8.18116013495035</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>526.8707440555617</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36133,7 +36133,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>499.2977362695175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,10 +36437,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>263.67989750701</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O27" t="n">
-        <v>208.9080170074344</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>134.2025531565914</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,10 +36990,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>159.0482712280113</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>120.5443928316905</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243171</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492471</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>134.2025531565903</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819473</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>180.6240912112801</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>82.88662398579324</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,13 +38108,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
